--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndah\OneDrive\Documents\04 - Kuliah\semester 7\riset\code\peramalan curah hujan - ELM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndah\OneDrive\Documents\04 - Kuliah\semester 7\riset\code\riset - mandiri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3826F3E3-C744-4210-B8C1-F14A7A06DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBD6A9-10DE-45C6-AF75-A4D3A302B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5EA0176-D0E6-44D3-AB52-918A1C18374F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Curah Hujan (RR)</t>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,12 +110,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25224740-5F31-4BB2-8CEF-859CBBB9F88B}">
   <dimension ref="A1:B1644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1626" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1644" sqref="C1644"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6030,7 +6024,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A733" s="7">
+      <c r="A733" s="2">
         <v>44562</v>
       </c>
       <c r="B733">
@@ -6038,7 +6032,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A734" s="7">
+      <c r="A734" s="2">
         <v>44563</v>
       </c>
       <c r="B734">
@@ -6046,7 +6040,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A735" s="7">
+      <c r="A735" s="2">
         <v>44564</v>
       </c>
       <c r="B735">
@@ -6054,7 +6048,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A736" s="7">
+      <c r="A736" s="2">
         <v>44565</v>
       </c>
       <c r="B736">
@@ -6062,7 +6056,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A737" s="7">
+      <c r="A737" s="2">
         <v>44566</v>
       </c>
       <c r="B737">
@@ -6070,7 +6064,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A738" s="7">
+      <c r="A738" s="2">
         <v>44567</v>
       </c>
       <c r="B738">
@@ -6078,7 +6072,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A739" s="7">
+      <c r="A739" s="2">
         <v>44568</v>
       </c>
       <c r="B739">
@@ -6086,7 +6080,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A740" s="7">
+      <c r="A740" s="2">
         <v>44569</v>
       </c>
       <c r="B740">
@@ -6094,7 +6088,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A741" s="7">
+      <c r="A741" s="2">
         <v>44570</v>
       </c>
       <c r="B741">
@@ -6102,7 +6096,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A742" s="7">
+      <c r="A742" s="2">
         <v>44571</v>
       </c>
       <c r="B742">
@@ -6110,7 +6104,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A743" s="7">
+      <c r="A743" s="2">
         <v>44572</v>
       </c>
       <c r="B743">
@@ -6118,7 +6112,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A744" s="7">
+      <c r="A744" s="2">
         <v>44573</v>
       </c>
       <c r="B744">
@@ -6126,7 +6120,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A745" s="7">
+      <c r="A745" s="2">
         <v>44574</v>
       </c>
       <c r="B745">
@@ -6134,17 +6128,17 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A746" s="7">
+      <c r="A746" s="2">
         <v>44575</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A747" s="7">
+      <c r="A747" s="2">
         <v>44576</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A748" s="7">
+      <c r="A748" s="2">
         <v>44577</v>
       </c>
       <c r="B748">
@@ -6152,7 +6146,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A749" s="7">
+      <c r="A749" s="2">
         <v>44578</v>
       </c>
       <c r="B749">
@@ -6160,7 +6154,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A750" s="7">
+      <c r="A750" s="2">
         <v>44579</v>
       </c>
       <c r="B750">
@@ -6168,7 +6162,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A751" s="7">
+      <c r="A751" s="2">
         <v>44580</v>
       </c>
       <c r="B751">
@@ -6176,7 +6170,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A752" s="7">
+      <c r="A752" s="2">
         <v>44581</v>
       </c>
       <c r="B752">
@@ -6184,7 +6178,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A753" s="7">
+      <c r="A753" s="2">
         <v>44582</v>
       </c>
       <c r="B753">
@@ -6192,12 +6186,12 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A754" s="7">
+      <c r="A754" s="2">
         <v>44583</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A755" s="7">
+      <c r="A755" s="2">
         <v>44584</v>
       </c>
       <c r="B755">
@@ -6205,7 +6199,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A756" s="7">
+      <c r="A756" s="2">
         <v>44585</v>
       </c>
       <c r="B756">
@@ -6213,7 +6207,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A757" s="7">
+      <c r="A757" s="2">
         <v>44586</v>
       </c>
       <c r="B757">
@@ -6221,7 +6215,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A758" s="7">
+      <c r="A758" s="2">
         <v>44587</v>
       </c>
       <c r="B758">
@@ -6229,7 +6223,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A759" s="7">
+      <c r="A759" s="2">
         <v>44588</v>
       </c>
       <c r="B759">
@@ -6237,7 +6231,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A760" s="7">
+      <c r="A760" s="2">
         <v>44589</v>
       </c>
       <c r="B760">
@@ -6245,7 +6239,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A761" s="7">
+      <c r="A761" s="2">
         <v>44590</v>
       </c>
       <c r="B761">
@@ -6253,7 +6247,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A762" s="7">
+      <c r="A762" s="2">
         <v>44591</v>
       </c>
       <c r="B762">
@@ -6261,7 +6255,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A763" s="7">
+      <c r="A763" s="2">
         <v>44592</v>
       </c>
       <c r="B763">
@@ -6269,7 +6263,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A764" s="7">
+      <c r="A764" s="2">
         <v>44593</v>
       </c>
       <c r="B764">
@@ -6277,7 +6271,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A765" s="7">
+      <c r="A765" s="2">
         <v>44594</v>
       </c>
       <c r="B765">
@@ -6285,7 +6279,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A766" s="7">
+      <c r="A766" s="2">
         <v>44595</v>
       </c>
       <c r="B766">
@@ -6293,7 +6287,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A767" s="7">
+      <c r="A767" s="2">
         <v>44596</v>
       </c>
       <c r="B767">
@@ -6301,7 +6295,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A768" s="7">
+      <c r="A768" s="2">
         <v>44597</v>
       </c>
       <c r="B768">
@@ -6309,7 +6303,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A769" s="7">
+      <c r="A769" s="2">
         <v>44598</v>
       </c>
       <c r="B769">
@@ -6317,7 +6311,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A770" s="7">
+      <c r="A770" s="2">
         <v>44599</v>
       </c>
       <c r="B770">
@@ -6325,7 +6319,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A771" s="7">
+      <c r="A771" s="2">
         <v>44600</v>
       </c>
       <c r="B771">
@@ -6333,7 +6327,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A772" s="7">
+      <c r="A772" s="2">
         <v>44601</v>
       </c>
       <c r="B772">
@@ -6341,7 +6335,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A773" s="7">
+      <c r="A773" s="2">
         <v>44602</v>
       </c>
       <c r="B773">
@@ -6349,7 +6343,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A774" s="7">
+      <c r="A774" s="2">
         <v>44603</v>
       </c>
       <c r="B774">
@@ -6357,7 +6351,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A775" s="7">
+      <c r="A775" s="2">
         <v>44604</v>
       </c>
       <c r="B775">
@@ -6365,7 +6359,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A776" s="7">
+      <c r="A776" s="2">
         <v>44605</v>
       </c>
       <c r="B776">
@@ -6373,7 +6367,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A777" s="7">
+      <c r="A777" s="2">
         <v>44606</v>
       </c>
       <c r="B777">
@@ -6381,12 +6375,12 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A778" s="7">
+      <c r="A778" s="2">
         <v>44607</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A779" s="7">
+      <c r="A779" s="2">
         <v>44608</v>
       </c>
       <c r="B779">
@@ -6394,7 +6388,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A780" s="7">
+      <c r="A780" s="2">
         <v>44609</v>
       </c>
       <c r="B780">
@@ -6402,7 +6396,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A781" s="7">
+      <c r="A781" s="2">
         <v>44610</v>
       </c>
       <c r="B781">
@@ -6410,7 +6404,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A782" s="7">
+      <c r="A782" s="2">
         <v>44611</v>
       </c>
       <c r="B782">
@@ -6418,7 +6412,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A783" s="7">
+      <c r="A783" s="2">
         <v>44612</v>
       </c>
       <c r="B783">
@@ -6426,7 +6420,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A784" s="7">
+      <c r="A784" s="2">
         <v>44613</v>
       </c>
       <c r="B784">
@@ -6434,7 +6428,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A785" s="7">
+      <c r="A785" s="2">
         <v>44614</v>
       </c>
       <c r="B785">
@@ -6442,7 +6436,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A786" s="7">
+      <c r="A786" s="2">
         <v>44615</v>
       </c>
       <c r="B786">
@@ -6450,7 +6444,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A787" s="7">
+      <c r="A787" s="2">
         <v>44616</v>
       </c>
       <c r="B787">
@@ -6458,7 +6452,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A788" s="7">
+      <c r="A788" s="2">
         <v>44617</v>
       </c>
       <c r="B788">
@@ -6466,7 +6460,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A789" s="7">
+      <c r="A789" s="2">
         <v>44618</v>
       </c>
       <c r="B789">
@@ -6474,7 +6468,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A790" s="7">
+      <c r="A790" s="2">
         <v>44619</v>
       </c>
       <c r="B790">
@@ -6482,7 +6476,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A791" s="7">
+      <c r="A791" s="2">
         <v>44620</v>
       </c>
       <c r="B791">
@@ -6490,7 +6484,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A792" s="7">
+      <c r="A792" s="2">
         <v>44621</v>
       </c>
       <c r="B792">
@@ -6498,7 +6492,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A793" s="7">
+      <c r="A793" s="2">
         <v>44622</v>
       </c>
       <c r="B793">
@@ -6506,7 +6500,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A794" s="7">
+      <c r="A794" s="2">
         <v>44623</v>
       </c>
       <c r="B794">
@@ -6514,12 +6508,12 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A795" s="7">
+      <c r="A795" s="2">
         <v>44624</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A796" s="7">
+      <c r="A796" s="2">
         <v>44625</v>
       </c>
       <c r="B796">
@@ -6527,7 +6521,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A797" s="7">
+      <c r="A797" s="2">
         <v>44626</v>
       </c>
       <c r="B797">
@@ -6535,7 +6529,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A798" s="7">
+      <c r="A798" s="2">
         <v>44627</v>
       </c>
       <c r="B798">
@@ -6543,7 +6537,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A799" s="7">
+      <c r="A799" s="2">
         <v>44628</v>
       </c>
       <c r="B799">
@@ -6551,7 +6545,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A800" s="7">
+      <c r="A800" s="2">
         <v>44629</v>
       </c>
       <c r="B800">
@@ -6559,7 +6553,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A801" s="7">
+      <c r="A801" s="2">
         <v>44630</v>
       </c>
       <c r="B801">
@@ -6567,12 +6561,12 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A802" s="7">
+      <c r="A802" s="2">
         <v>44631</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A803" s="7">
+      <c r="A803" s="2">
         <v>44632</v>
       </c>
       <c r="B803">
@@ -6580,7 +6574,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A804" s="7">
+      <c r="A804" s="2">
         <v>44633</v>
       </c>
       <c r="B804">
@@ -6588,7 +6582,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A805" s="7">
+      <c r="A805" s="2">
         <v>44634</v>
       </c>
       <c r="B805">
@@ -6596,7 +6590,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A806" s="7">
+      <c r="A806" s="2">
         <v>44635</v>
       </c>
       <c r="B806">
@@ -6604,7 +6598,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A807" s="7">
+      <c r="A807" s="2">
         <v>44636</v>
       </c>
       <c r="B807">
@@ -6612,7 +6606,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A808" s="7">
+      <c r="A808" s="2">
         <v>44637</v>
       </c>
       <c r="B808">
@@ -6620,17 +6614,17 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A809" s="7">
+      <c r="A809" s="2">
         <v>44638</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A810" s="7">
+      <c r="A810" s="2">
         <v>44639</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A811" s="7">
+      <c r="A811" s="2">
         <v>44640</v>
       </c>
       <c r="B811">
@@ -6638,7 +6632,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A812" s="7">
+      <c r="A812" s="2">
         <v>44641</v>
       </c>
       <c r="B812">
@@ -6646,7 +6640,7 @@
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A813" s="7">
+      <c r="A813" s="2">
         <v>44642</v>
       </c>
       <c r="B813">
@@ -6654,7 +6648,7 @@
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A814" s="7">
+      <c r="A814" s="2">
         <v>44643</v>
       </c>
       <c r="B814">
@@ -6662,7 +6656,7 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A815" s="7">
+      <c r="A815" s="2">
         <v>44644</v>
       </c>
       <c r="B815">
@@ -6670,7 +6664,7 @@
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A816" s="7">
+      <c r="A816" s="2">
         <v>44645</v>
       </c>
       <c r="B816">
@@ -6678,7 +6672,7 @@
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A817" s="7">
+      <c r="A817" s="2">
         <v>44646</v>
       </c>
       <c r="B817">
@@ -6686,7 +6680,7 @@
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A818" s="7">
+      <c r="A818" s="2">
         <v>44647</v>
       </c>
       <c r="B818">
@@ -6694,7 +6688,7 @@
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A819" s="7">
+      <c r="A819" s="2">
         <v>44648</v>
       </c>
       <c r="B819">
@@ -6702,7 +6696,7 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A820" s="7">
+      <c r="A820" s="2">
         <v>44649</v>
       </c>
       <c r="B820">
@@ -6710,7 +6704,7 @@
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A821" s="7">
+      <c r="A821" s="2">
         <v>44650</v>
       </c>
       <c r="B821">
@@ -6718,7 +6712,7 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A822" s="7">
+      <c r="A822" s="2">
         <v>44651</v>
       </c>
       <c r="B822">
@@ -6726,7 +6720,7 @@
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A823" s="7">
+      <c r="A823" s="2">
         <v>44652</v>
       </c>
       <c r="B823">
@@ -6734,7 +6728,7 @@
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A824" s="7">
+      <c r="A824" s="2">
         <v>44653</v>
       </c>
       <c r="B824">
@@ -6742,7 +6736,7 @@
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A825" s="7">
+      <c r="A825" s="2">
         <v>44654</v>
       </c>
       <c r="B825">
@@ -6750,7 +6744,7 @@
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A826" s="7">
+      <c r="A826" s="2">
         <v>44655</v>
       </c>
       <c r="B826">
@@ -6758,17 +6752,17 @@
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A827" s="7">
+      <c r="A827" s="2">
         <v>44656</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A828" s="7">
+      <c r="A828" s="2">
         <v>44657</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A829" s="7">
+      <c r="A829" s="2">
         <v>44658</v>
       </c>
       <c r="B829">
@@ -6776,7 +6770,7 @@
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A830" s="7">
+      <c r="A830" s="2">
         <v>44659</v>
       </c>
       <c r="B830">
@@ -6784,7 +6778,7 @@
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A831" s="7">
+      <c r="A831" s="2">
         <v>44660</v>
       </c>
       <c r="B831">
@@ -6792,7 +6786,7 @@
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A832" s="7">
+      <c r="A832" s="2">
         <v>44661</v>
       </c>
       <c r="B832">
@@ -6800,22 +6794,22 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A833" s="7">
+      <c r="A833" s="2">
         <v>44662</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A834" s="7">
+      <c r="A834" s="2">
         <v>44663</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A835" s="7">
+      <c r="A835" s="2">
         <v>44664</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A836" s="7">
+      <c r="A836" s="2">
         <v>44665</v>
       </c>
       <c r="B836">
@@ -6823,7 +6817,7 @@
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A837" s="7">
+      <c r="A837" s="2">
         <v>44666</v>
       </c>
       <c r="B837">
@@ -6831,7 +6825,7 @@
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A838" s="7">
+      <c r="A838" s="2">
         <v>44667</v>
       </c>
       <c r="B838">
@@ -6839,7 +6833,7 @@
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A839" s="7">
+      <c r="A839" s="2">
         <v>44668</v>
       </c>
       <c r="B839">
@@ -6847,7 +6841,7 @@
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A840" s="7">
+      <c r="A840" s="2">
         <v>44669</v>
       </c>
       <c r="B840">
@@ -6855,7 +6849,7 @@
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A841" s="7">
+      <c r="A841" s="2">
         <v>44670</v>
       </c>
       <c r="B841">
@@ -6863,7 +6857,7 @@
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A842" s="7">
+      <c r="A842" s="2">
         <v>44671</v>
       </c>
       <c r="B842">
@@ -6871,12 +6865,12 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A843" s="7">
+      <c r="A843" s="2">
         <v>44672</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A844" s="7">
+      <c r="A844" s="2">
         <v>44673</v>
       </c>
       <c r="B844">
@@ -6884,7 +6878,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A845" s="7">
+      <c r="A845" s="2">
         <v>44674</v>
       </c>
       <c r="B845">
@@ -6892,7 +6886,7 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A846" s="7">
+      <c r="A846" s="2">
         <v>44675</v>
       </c>
       <c r="B846">
@@ -6900,7 +6894,7 @@
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A847" s="7">
+      <c r="A847" s="2">
         <v>44676</v>
       </c>
       <c r="B847">
@@ -6908,7 +6902,7 @@
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A848" s="7">
+      <c r="A848" s="2">
         <v>44677</v>
       </c>
       <c r="B848">
@@ -6916,7 +6910,7 @@
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A849" s="7">
+      <c r="A849" s="2">
         <v>44678</v>
       </c>
       <c r="B849">
@@ -6924,7 +6918,7 @@
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A850" s="7">
+      <c r="A850" s="2">
         <v>44679</v>
       </c>
       <c r="B850">
@@ -6932,7 +6926,7 @@
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A851" s="7">
+      <c r="A851" s="2">
         <v>44680</v>
       </c>
       <c r="B851">
@@ -6940,12 +6934,12 @@
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A852" s="7">
+      <c r="A852" s="2">
         <v>44681</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A853" s="7">
+      <c r="A853" s="2">
         <v>44682</v>
       </c>
       <c r="B853">
@@ -6953,7 +6947,7 @@
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A854" s="7">
+      <c r="A854" s="2">
         <v>44683</v>
       </c>
       <c r="B854">
@@ -6961,7 +6955,7 @@
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A855" s="7">
+      <c r="A855" s="2">
         <v>44684</v>
       </c>
       <c r="B855">
@@ -6969,7 +6963,7 @@
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A856" s="7">
+      <c r="A856" s="2">
         <v>44685</v>
       </c>
       <c r="B856">
@@ -6977,7 +6971,7 @@
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A857" s="7">
+      <c r="A857" s="2">
         <v>44686</v>
       </c>
       <c r="B857">
@@ -6985,7 +6979,7 @@
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A858" s="7">
+      <c r="A858" s="2">
         <v>44687</v>
       </c>
       <c r="B858">
@@ -6993,7 +6987,7 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A859" s="7">
+      <c r="A859" s="2">
         <v>44688</v>
       </c>
       <c r="B859">
@@ -7001,7 +6995,7 @@
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A860" s="7">
+      <c r="A860" s="2">
         <v>44689</v>
       </c>
       <c r="B860">
@@ -7009,7 +7003,7 @@
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A861" s="7">
+      <c r="A861" s="2">
         <v>44690</v>
       </c>
       <c r="B861">
@@ -7017,12 +7011,12 @@
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A862" s="7">
+      <c r="A862" s="2">
         <v>44691</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A863" s="7">
+      <c r="A863" s="2">
         <v>44692</v>
       </c>
       <c r="B863">
@@ -7030,7 +7024,7 @@
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A864" s="7">
+      <c r="A864" s="2">
         <v>44693</v>
       </c>
       <c r="B864">
@@ -7038,7 +7032,7 @@
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A865" s="7">
+      <c r="A865" s="2">
         <v>44694</v>
       </c>
       <c r="B865">
@@ -7046,7 +7040,7 @@
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A866" s="7">
+      <c r="A866" s="2">
         <v>44695</v>
       </c>
       <c r="B866">
@@ -7054,7 +7048,7 @@
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A867" s="7">
+      <c r="A867" s="2">
         <v>44696</v>
       </c>
       <c r="B867">
@@ -7062,7 +7056,7 @@
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A868" s="7">
+      <c r="A868" s="2">
         <v>44697</v>
       </c>
       <c r="B868">
@@ -7070,12 +7064,12 @@
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A869" s="7">
+      <c r="A869" s="2">
         <v>44698</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A870" s="7">
+      <c r="A870" s="2">
         <v>44699</v>
       </c>
       <c r="B870">
@@ -7083,7 +7077,7 @@
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A871" s="7">
+      <c r="A871" s="2">
         <v>44700</v>
       </c>
       <c r="B871">
@@ -7091,7 +7085,7 @@
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A872" s="7">
+      <c r="A872" s="2">
         <v>44701</v>
       </c>
       <c r="B872">
@@ -7099,7 +7093,7 @@
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A873" s="7">
+      <c r="A873" s="2">
         <v>44702</v>
       </c>
       <c r="B873">
@@ -7107,7 +7101,7 @@
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A874" s="7">
+      <c r="A874" s="2">
         <v>44703</v>
       </c>
       <c r="B874">
@@ -7115,7 +7109,7 @@
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A875" s="7">
+      <c r="A875" s="2">
         <v>44704</v>
       </c>
       <c r="B875">
@@ -7123,7 +7117,7 @@
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A876" s="7">
+      <c r="A876" s="2">
         <v>44705</v>
       </c>
       <c r="B876">
@@ -7131,7 +7125,7 @@
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A877" s="7">
+      <c r="A877" s="2">
         <v>44706</v>
       </c>
       <c r="B877">
@@ -7139,7 +7133,7 @@
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A878" s="7">
+      <c r="A878" s="2">
         <v>44707</v>
       </c>
       <c r="B878">
@@ -7147,7 +7141,7 @@
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A879" s="7">
+      <c r="A879" s="2">
         <v>44708</v>
       </c>
       <c r="B879">
@@ -7155,7 +7149,7 @@
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A880" s="7">
+      <c r="A880" s="2">
         <v>44709</v>
       </c>
       <c r="B880">
@@ -7163,12 +7157,12 @@
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A881" s="7">
+      <c r="A881" s="2">
         <v>44710</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A882" s="7">
+      <c r="A882" s="2">
         <v>44711</v>
       </c>
       <c r="B882">
@@ -7176,7 +7170,7 @@
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A883" s="7">
+      <c r="A883" s="2">
         <v>44712</v>
       </c>
       <c r="B883">
@@ -7184,7 +7178,7 @@
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A884" s="7">
+      <c r="A884" s="2">
         <v>44713</v>
       </c>
       <c r="B884">
@@ -7192,7 +7186,7 @@
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A885" s="7">
+      <c r="A885" s="2">
         <v>44714</v>
       </c>
       <c r="B885">
@@ -7200,7 +7194,7 @@
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A886" s="7">
+      <c r="A886" s="2">
         <v>44715</v>
       </c>
       <c r="B886">
@@ -7208,17 +7202,17 @@
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A887" s="7">
+      <c r="A887" s="2">
         <v>44716</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A888" s="7">
+      <c r="A888" s="2">
         <v>44717</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A889" s="7">
+      <c r="A889" s="2">
         <v>44718</v>
       </c>
       <c r="B889">
@@ -7226,7 +7220,7 @@
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A890" s="7">
+      <c r="A890" s="2">
         <v>44719</v>
       </c>
       <c r="B890">
@@ -7234,7 +7228,7 @@
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A891" s="7">
+      <c r="A891" s="2">
         <v>44720</v>
       </c>
       <c r="B891">
@@ -7242,7 +7236,7 @@
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A892" s="7">
+      <c r="A892" s="2">
         <v>44721</v>
       </c>
       <c r="B892">
@@ -7250,7 +7244,7 @@
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A893" s="7">
+      <c r="A893" s="2">
         <v>44722</v>
       </c>
       <c r="B893">
@@ -7258,7 +7252,7 @@
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A894" s="7">
+      <c r="A894" s="2">
         <v>44723</v>
       </c>
       <c r="B894">
@@ -7266,12 +7260,12 @@
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A895" s="7">
+      <c r="A895" s="2">
         <v>44724</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A896" s="7">
+      <c r="A896" s="2">
         <v>44725</v>
       </c>
       <c r="B896">
@@ -7279,7 +7273,7 @@
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A897" s="7">
+      <c r="A897" s="2">
         <v>44726</v>
       </c>
       <c r="B897">
@@ -7287,7 +7281,7 @@
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A898" s="7">
+      <c r="A898" s="2">
         <v>44727</v>
       </c>
       <c r="B898">
@@ -7295,7 +7289,7 @@
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A899" s="7">
+      <c r="A899" s="2">
         <v>44728</v>
       </c>
       <c r="B899">
@@ -7303,7 +7297,7 @@
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A900" s="7">
+      <c r="A900" s="2">
         <v>44729</v>
       </c>
       <c r="B900">
@@ -7311,7 +7305,7 @@
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A901" s="7">
+      <c r="A901" s="2">
         <v>44730</v>
       </c>
       <c r="B901">
@@ -7319,7 +7313,7 @@
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A902" s="7">
+      <c r="A902" s="2">
         <v>44731</v>
       </c>
       <c r="B902">
@@ -7327,7 +7321,7 @@
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A903" s="7">
+      <c r="A903" s="2">
         <v>44732</v>
       </c>
       <c r="B903">
@@ -7335,7 +7329,7 @@
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A904" s="7">
+      <c r="A904" s="2">
         <v>44733</v>
       </c>
       <c r="B904">
@@ -7343,7 +7337,7 @@
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A905" s="7">
+      <c r="A905" s="2">
         <v>44734</v>
       </c>
       <c r="B905">
@@ -7351,7 +7345,7 @@
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A906" s="7">
+      <c r="A906" s="2">
         <v>44735</v>
       </c>
       <c r="B906">
@@ -7359,7 +7353,7 @@
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A907" s="7">
+      <c r="A907" s="2">
         <v>44736</v>
       </c>
       <c r="B907">
@@ -7367,7 +7361,7 @@
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A908" s="7">
+      <c r="A908" s="2">
         <v>44737</v>
       </c>
       <c r="B908">
@@ -7375,7 +7369,7 @@
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A909" s="7">
+      <c r="A909" s="2">
         <v>44738</v>
       </c>
       <c r="B909">
@@ -7383,7 +7377,7 @@
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A910" s="7">
+      <c r="A910" s="2">
         <v>44739</v>
       </c>
       <c r="B910">
@@ -7391,17 +7385,17 @@
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A911" s="7">
+      <c r="A911" s="2">
         <v>44740</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A912" s="7">
+      <c r="A912" s="2">
         <v>44741</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A913" s="7">
+      <c r="A913" s="2">
         <v>44742</v>
       </c>
       <c r="B913">
@@ -7409,7 +7403,7 @@
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A914" s="7">
+      <c r="A914" s="2">
         <v>44743</v>
       </c>
       <c r="B914">
@@ -7417,7 +7411,7 @@
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A915" s="7">
+      <c r="A915" s="2">
         <v>44744</v>
       </c>
       <c r="B915">
@@ -7425,7 +7419,7 @@
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A916" s="7">
+      <c r="A916" s="2">
         <v>44745</v>
       </c>
       <c r="B916">
@@ -7433,7 +7427,7 @@
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A917" s="7">
+      <c r="A917" s="2">
         <v>44746</v>
       </c>
       <c r="B917">
@@ -7441,7 +7435,7 @@
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A918" s="7">
+      <c r="A918" s="2">
         <v>44747</v>
       </c>
       <c r="B918">
@@ -7449,7 +7443,7 @@
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A919" s="7">
+      <c r="A919" s="2">
         <v>44748</v>
       </c>
       <c r="B919">
@@ -7457,12 +7451,12 @@
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A920" s="7">
+      <c r="A920" s="2">
         <v>44749</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A921" s="7">
+      <c r="A921" s="2">
         <v>44750</v>
       </c>
       <c r="B921">
@@ -7470,12 +7464,12 @@
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A922" s="7">
+      <c r="A922" s="2">
         <v>44751</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A923" s="7">
+      <c r="A923" s="2">
         <v>44752</v>
       </c>
       <c r="B923">
@@ -7483,7 +7477,7 @@
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A924" s="7">
+      <c r="A924" s="2">
         <v>44753</v>
       </c>
       <c r="B924">
@@ -7491,7 +7485,7 @@
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A925" s="7">
+      <c r="A925" s="2">
         <v>44754</v>
       </c>
       <c r="B925">
@@ -7499,7 +7493,7 @@
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A926" s="7">
+      <c r="A926" s="2">
         <v>44755</v>
       </c>
       <c r="B926">
@@ -7507,7 +7501,7 @@
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A927" s="7">
+      <c r="A927" s="2">
         <v>44756</v>
       </c>
       <c r="B927">
@@ -7515,7 +7509,7 @@
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A928" s="7">
+      <c r="A928" s="2">
         <v>44757</v>
       </c>
       <c r="B928">
@@ -7523,7 +7517,7 @@
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A929" s="7">
+      <c r="A929" s="2">
         <v>44758</v>
       </c>
       <c r="B929">
@@ -7531,12 +7525,12 @@
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A930" s="7">
+      <c r="A930" s="2">
         <v>44759</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A931" s="7">
+      <c r="A931" s="2">
         <v>44760</v>
       </c>
       <c r="B931">
@@ -7544,7 +7538,7 @@
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A932" s="7">
+      <c r="A932" s="2">
         <v>44761</v>
       </c>
       <c r="B932">
@@ -7552,7 +7546,7 @@
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A933" s="7">
+      <c r="A933" s="2">
         <v>44762</v>
       </c>
       <c r="B933">
@@ -7560,7 +7554,7 @@
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A934" s="7">
+      <c r="A934" s="2">
         <v>44763</v>
       </c>
       <c r="B934">
@@ -7568,17 +7562,17 @@
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A935" s="7">
+      <c r="A935" s="2">
         <v>44764</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A936" s="7">
+      <c r="A936" s="2">
         <v>44765</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A937" s="7">
+      <c r="A937" s="2">
         <v>44766</v>
       </c>
       <c r="B937">
@@ -7586,12 +7580,12 @@
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A938" s="7">
+      <c r="A938" s="2">
         <v>44767</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A939" s="7">
+      <c r="A939" s="2">
         <v>44768</v>
       </c>
       <c r="B939">
@@ -7599,7 +7593,7 @@
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A940" s="7">
+      <c r="A940" s="2">
         <v>44769</v>
       </c>
       <c r="B940">
@@ -7607,7 +7601,7 @@
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A941" s="7">
+      <c r="A941" s="2">
         <v>44770</v>
       </c>
       <c r="B941">
@@ -7615,7 +7609,7 @@
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A942" s="7">
+      <c r="A942" s="2">
         <v>44771</v>
       </c>
       <c r="B942">
@@ -7623,7 +7617,7 @@
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A943" s="7">
+      <c r="A943" s="2">
         <v>44772</v>
       </c>
       <c r="B943">
@@ -7631,12 +7625,12 @@
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A944" s="7">
+      <c r="A944" s="2">
         <v>44773</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A945" s="7">
+      <c r="A945" s="2">
         <v>44774</v>
       </c>
       <c r="B945">
@@ -7644,7 +7638,7 @@
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A946" s="7">
+      <c r="A946" s="2">
         <v>44775</v>
       </c>
       <c r="B946">
@@ -7652,7 +7646,7 @@
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A947" s="7">
+      <c r="A947" s="2">
         <v>44776</v>
       </c>
       <c r="B947">
@@ -7660,7 +7654,7 @@
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A948" s="7">
+      <c r="A948" s="2">
         <v>44777</v>
       </c>
       <c r="B948">
@@ -7668,12 +7662,12 @@
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A949" s="7">
+      <c r="A949" s="2">
         <v>44778</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A950" s="7">
+      <c r="A950" s="2">
         <v>44779</v>
       </c>
       <c r="B950">
@@ -7681,27 +7675,27 @@
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A951" s="7">
+      <c r="A951" s="2">
         <v>44780</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A952" s="7">
+      <c r="A952" s="2">
         <v>44781</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A953" s="7">
+      <c r="A953" s="2">
         <v>44782</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A954" s="7">
+      <c r="A954" s="2">
         <v>44783</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A955" s="7">
+      <c r="A955" s="2">
         <v>44784</v>
       </c>
       <c r="B955">
@@ -7709,7 +7703,7 @@
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A956" s="7">
+      <c r="A956" s="2">
         <v>44785</v>
       </c>
       <c r="B956">
@@ -7717,7 +7711,7 @@
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A957" s="7">
+      <c r="A957" s="2">
         <v>44786</v>
       </c>
       <c r="B957">
@@ -7725,7 +7719,7 @@
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A958" s="7">
+      <c r="A958" s="2">
         <v>44787</v>
       </c>
       <c r="B958">
@@ -7733,7 +7727,7 @@
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A959" s="7">
+      <c r="A959" s="2">
         <v>44788</v>
       </c>
       <c r="B959">
@@ -7741,22 +7735,22 @@
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A960" s="7">
+      <c r="A960" s="2">
         <v>44789</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A961" s="7">
+      <c r="A961" s="2">
         <v>44790</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A962" s="7">
+      <c r="A962" s="2">
         <v>44791</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A963" s="7">
+      <c r="A963" s="2">
         <v>44792</v>
       </c>
       <c r="B963">
@@ -7764,7 +7758,7 @@
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A964" s="7">
+      <c r="A964" s="2">
         <v>44793</v>
       </c>
       <c r="B964">
@@ -7772,7 +7766,7 @@
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A965" s="7">
+      <c r="A965" s="2">
         <v>44794</v>
       </c>
       <c r="B965">
@@ -7780,7 +7774,7 @@
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A966" s="7">
+      <c r="A966" s="2">
         <v>44795</v>
       </c>
       <c r="B966">
@@ -7788,12 +7782,12 @@
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A967" s="7">
+      <c r="A967" s="2">
         <v>44796</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A968" s="7">
+      <c r="A968" s="2">
         <v>44797</v>
       </c>
       <c r="B968">
@@ -7801,7 +7795,7 @@
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A969" s="7">
+      <c r="A969" s="2">
         <v>44798</v>
       </c>
       <c r="B969">
@@ -7809,12 +7803,12 @@
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A970" s="7">
+      <c r="A970" s="2">
         <v>44799</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A971" s="7">
+      <c r="A971" s="2">
         <v>44800</v>
       </c>
       <c r="B971">
@@ -7822,7 +7816,7 @@
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A972" s="7">
+      <c r="A972" s="2">
         <v>44801</v>
       </c>
       <c r="B972">
@@ -7830,7 +7824,7 @@
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A973" s="7">
+      <c r="A973" s="2">
         <v>44802</v>
       </c>
       <c r="B973">
@@ -7838,7 +7832,7 @@
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A974" s="7">
+      <c r="A974" s="2">
         <v>44803</v>
       </c>
       <c r="B974">
@@ -7846,17 +7840,17 @@
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A975" s="7">
+      <c r="A975" s="2">
         <v>44804</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A976" s="7">
+      <c r="A976" s="2">
         <v>44805</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A977" s="7">
+      <c r="A977" s="2">
         <v>44806</v>
       </c>
       <c r="B977">
@@ -7864,17 +7858,17 @@
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A978" s="7">
+      <c r="A978" s="2">
         <v>44807</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A979" s="7">
+      <c r="A979" s="2">
         <v>44808</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A980" s="7">
+      <c r="A980" s="2">
         <v>44809</v>
       </c>
       <c r="B980">
@@ -7882,7 +7876,7 @@
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A981" s="7">
+      <c r="A981" s="2">
         <v>44810</v>
       </c>
       <c r="B981">
@@ -7890,7 +7884,7 @@
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A982" s="7">
+      <c r="A982" s="2">
         <v>44811</v>
       </c>
       <c r="B982">
@@ -7898,12 +7892,12 @@
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A983" s="7">
+      <c r="A983" s="2">
         <v>44812</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A984" s="7">
+      <c r="A984" s="2">
         <v>44813</v>
       </c>
       <c r="B984">
@@ -7911,7 +7905,7 @@
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A985" s="7">
+      <c r="A985" s="2">
         <v>44814</v>
       </c>
       <c r="B985">
@@ -7919,12 +7913,12 @@
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A986" s="7">
+      <c r="A986" s="2">
         <v>44815</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A987" s="7">
+      <c r="A987" s="2">
         <v>44816</v>
       </c>
       <c r="B987">
@@ -7932,7 +7926,7 @@
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A988" s="7">
+      <c r="A988" s="2">
         <v>44817</v>
       </c>
       <c r="B988">
@@ -7940,7 +7934,7 @@
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A989" s="7">
+      <c r="A989" s="2">
         <v>44818</v>
       </c>
       <c r="B989">
@@ -7948,7 +7942,7 @@
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A990" s="7">
+      <c r="A990" s="2">
         <v>44819</v>
       </c>
       <c r="B990">
@@ -7956,7 +7950,7 @@
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A991" s="7">
+      <c r="A991" s="2">
         <v>44820</v>
       </c>
       <c r="B991">
@@ -7964,17 +7958,17 @@
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A992" s="7">
+      <c r="A992" s="2">
         <v>44821</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A993" s="7">
+      <c r="A993" s="2">
         <v>44822</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A994" s="7">
+      <c r="A994" s="2">
         <v>44823</v>
       </c>
       <c r="B994">
@@ -7982,7 +7976,7 @@
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A995" s="7">
+      <c r="A995" s="2">
         <v>44824</v>
       </c>
       <c r="B995">
@@ -7990,7 +7984,7 @@
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A996" s="7">
+      <c r="A996" s="2">
         <v>44825</v>
       </c>
       <c r="B996">
@@ -7998,7 +7992,7 @@
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A997" s="7">
+      <c r="A997" s="2">
         <v>44826</v>
       </c>
       <c r="B997">
@@ -8006,7 +8000,7 @@
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A998" s="7">
+      <c r="A998" s="2">
         <v>44827</v>
       </c>
       <c r="B998">
@@ -8014,17 +8008,17 @@
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A999" s="7">
+      <c r="A999" s="2">
         <v>44828</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1000" s="7">
+      <c r="A1000" s="2">
         <v>44829</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1001" s="7">
+      <c r="A1001" s="2">
         <v>44830</v>
       </c>
       <c r="B1001">
@@ -8032,12 +8026,12 @@
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1002" s="7">
+      <c r="A1002" s="2">
         <v>44831</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1003" s="7">
+      <c r="A1003" s="2">
         <v>44832</v>
       </c>
       <c r="B1003">
@@ -8045,7 +8039,7 @@
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1004" s="7">
+      <c r="A1004" s="2">
         <v>44833</v>
       </c>
       <c r="B1004">
@@ -8053,7 +8047,7 @@
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1005" s="7">
+      <c r="A1005" s="2">
         <v>44834</v>
       </c>
       <c r="B1005">
@@ -8061,7 +8055,7 @@
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1006" s="7">
+      <c r="A1006" s="2">
         <v>44835</v>
       </c>
       <c r="B1006">
@@ -8069,7 +8063,7 @@
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1007" s="7">
+      <c r="A1007" s="2">
         <v>44836</v>
       </c>
       <c r="B1007">
@@ -8077,7 +8071,7 @@
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1008" s="7">
+      <c r="A1008" s="2">
         <v>44837</v>
       </c>
       <c r="B1008">
@@ -8085,7 +8079,7 @@
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1009" s="7">
+      <c r="A1009" s="2">
         <v>44838</v>
       </c>
       <c r="B1009">
@@ -8093,12 +8087,12 @@
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1010" s="7">
+      <c r="A1010" s="2">
         <v>44839</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1011" s="7">
+      <c r="A1011" s="2">
         <v>44840</v>
       </c>
       <c r="B1011">
@@ -8106,7 +8100,7 @@
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1012" s="7">
+      <c r="A1012" s="2">
         <v>44841</v>
       </c>
       <c r="B1012">
@@ -8114,7 +8108,7 @@
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1013" s="7">
+      <c r="A1013" s="2">
         <v>44842</v>
       </c>
       <c r="B1013">
@@ -8122,12 +8116,12 @@
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1014" s="7">
+      <c r="A1014" s="2">
         <v>44843</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1015" s="8">
+      <c r="A1015" s="3">
         <v>44844</v>
       </c>
       <c r="B1015">
@@ -8135,12 +8129,12 @@
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1016" s="8">
+      <c r="A1016" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1017" s="8">
+      <c r="A1017" s="3">
         <v>44846</v>
       </c>
       <c r="B1017">
@@ -8148,12 +8142,12 @@
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1018" s="8">
+      <c r="A1018" s="3">
         <v>44847</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1019" s="8">
+      <c r="A1019" s="3">
         <v>44848</v>
       </c>
       <c r="B1019">
@@ -8161,7 +8155,7 @@
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1020" s="8">
+      <c r="A1020" s="3">
         <v>44849</v>
       </c>
       <c r="B1020">
@@ -8169,7 +8163,7 @@
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1021" s="8">
+      <c r="A1021" s="3">
         <v>44850</v>
       </c>
       <c r="B1021">
@@ -8177,7 +8171,7 @@
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1022" s="8">
+      <c r="A1022" s="3">
         <v>44851</v>
       </c>
       <c r="B1022">
@@ -8185,7 +8179,7 @@
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1023" s="8">
+      <c r="A1023" s="3">
         <v>44852</v>
       </c>
       <c r="B1023">
@@ -8193,7 +8187,7 @@
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1024" s="8">
+      <c r="A1024" s="3">
         <v>44853</v>
       </c>
       <c r="B1024">
@@ -8201,7 +8195,7 @@
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1025" s="8">
+      <c r="A1025" s="3">
         <v>44854</v>
       </c>
       <c r="B1025">
@@ -8209,7 +8203,7 @@
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1026" s="8">
+      <c r="A1026" s="3">
         <v>44855</v>
       </c>
       <c r="B1026">
@@ -8217,7 +8211,7 @@
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1027" s="8">
+      <c r="A1027" s="3">
         <v>44856</v>
       </c>
       <c r="B1027">
@@ -8225,7 +8219,7 @@
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1028" s="8">
+      <c r="A1028" s="3">
         <v>44857</v>
       </c>
       <c r="B1028">
@@ -8233,7 +8227,7 @@
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1029" s="8">
+      <c r="A1029" s="3">
         <v>44858</v>
       </c>
       <c r="B1029">
@@ -8241,7 +8235,7 @@
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1030" s="8">
+      <c r="A1030" s="3">
         <v>44859</v>
       </c>
       <c r="B1030">
@@ -8249,7 +8243,7 @@
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1031" s="8">
+      <c r="A1031" s="3">
         <v>44860</v>
       </c>
       <c r="B1031">
@@ -8257,7 +8251,7 @@
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1032" s="8">
+      <c r="A1032" s="3">
         <v>44861</v>
       </c>
       <c r="B1032">
@@ -8265,7 +8259,7 @@
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1033" s="8">
+      <c r="A1033" s="3">
         <v>44862</v>
       </c>
       <c r="B1033">
@@ -8273,12 +8267,12 @@
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1034" s="8">
+      <c r="A1034" s="3">
         <v>44863</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1035" s="8">
+      <c r="A1035" s="3">
         <v>44864</v>
       </c>
       <c r="B1035">
@@ -8286,7 +8280,7 @@
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1036" s="8">
+      <c r="A1036" s="3">
         <v>44865</v>
       </c>
       <c r="B1036">
@@ -8294,7 +8288,7 @@
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1037" s="7">
+      <c r="A1037" s="2">
         <v>44866</v>
       </c>
       <c r="B1037">
@@ -8302,7 +8296,7 @@
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1038" s="7">
+      <c r="A1038" s="2">
         <v>44867</v>
       </c>
       <c r="B1038">
@@ -8310,7 +8304,7 @@
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1039" s="7">
+      <c r="A1039" s="2">
         <v>44868</v>
       </c>
       <c r="B1039">
@@ -8318,7 +8312,7 @@
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1040" s="7">
+      <c r="A1040" s="2">
         <v>44869</v>
       </c>
       <c r="B1040">
@@ -8326,7 +8320,7 @@
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1041" s="7">
+      <c r="A1041" s="2">
         <v>44870</v>
       </c>
       <c r="B1041">
@@ -8334,7 +8328,7 @@
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1042" s="7">
+      <c r="A1042" s="2">
         <v>44871</v>
       </c>
       <c r="B1042">
@@ -8342,7 +8336,7 @@
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1043" s="7">
+      <c r="A1043" s="2">
         <v>44872</v>
       </c>
       <c r="B1043">
@@ -8350,7 +8344,7 @@
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1044" s="7">
+      <c r="A1044" s="2">
         <v>44873</v>
       </c>
       <c r="B1044">
@@ -8358,7 +8352,7 @@
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1045" s="7">
+      <c r="A1045" s="2">
         <v>44874</v>
       </c>
       <c r="B1045">
@@ -8366,7 +8360,7 @@
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1046" s="8">
+      <c r="A1046" s="3">
         <v>44875</v>
       </c>
       <c r="B1046">
@@ -8374,7 +8368,7 @@
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1047" s="8">
+      <c r="A1047" s="3">
         <v>44876</v>
       </c>
       <c r="B1047">
@@ -8382,7 +8376,7 @@
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1048" s="8">
+      <c r="A1048" s="3">
         <v>44877</v>
       </c>
       <c r="B1048">
@@ -8390,7 +8384,7 @@
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1049" s="8">
+      <c r="A1049" s="3">
         <v>44878</v>
       </c>
       <c r="B1049">
@@ -8398,7 +8392,7 @@
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1050" s="8">
+      <c r="A1050" s="3">
         <v>44879</v>
       </c>
       <c r="B1050">
@@ -8406,7 +8400,7 @@
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1051" s="8">
+      <c r="A1051" s="3">
         <v>44880</v>
       </c>
       <c r="B1051">
@@ -8414,12 +8408,12 @@
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1052" s="8">
+      <c r="A1052" s="3">
         <v>44881</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1053" s="8">
+      <c r="A1053" s="3">
         <v>44882</v>
       </c>
       <c r="B1053">
@@ -8427,7 +8421,7 @@
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1054" s="8">
+      <c r="A1054" s="3">
         <v>44883</v>
       </c>
       <c r="B1054">
@@ -8435,7 +8429,7 @@
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1055" s="8">
+      <c r="A1055" s="3">
         <v>44884</v>
       </c>
       <c r="B1055">
@@ -8443,7 +8437,7 @@
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1056" s="8">
+      <c r="A1056" s="3">
         <v>44885</v>
       </c>
       <c r="B1056">
@@ -8451,7 +8445,7 @@
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1057" s="8">
+      <c r="A1057" s="3">
         <v>44886</v>
       </c>
       <c r="B1057">
@@ -8459,7 +8453,7 @@
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1058" s="8">
+      <c r="A1058" s="3">
         <v>44887</v>
       </c>
       <c r="B1058">
@@ -8467,7 +8461,7 @@
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1059" s="8">
+      <c r="A1059" s="3">
         <v>44888</v>
       </c>
       <c r="B1059">
@@ -8475,7 +8469,7 @@
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1060" s="8">
+      <c r="A1060" s="3">
         <v>44889</v>
       </c>
       <c r="B1060">
@@ -8483,7 +8477,7 @@
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1061" s="8">
+      <c r="A1061" s="3">
         <v>44890</v>
       </c>
       <c r="B1061">
@@ -8491,7 +8485,7 @@
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1062" s="8">
+      <c r="A1062" s="3">
         <v>44891</v>
       </c>
       <c r="B1062">
@@ -8499,7 +8493,7 @@
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1063" s="8">
+      <c r="A1063" s="3">
         <v>44892</v>
       </c>
       <c r="B1063">
@@ -8507,7 +8501,7 @@
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1064" s="8">
+      <c r="A1064" s="3">
         <v>44893</v>
       </c>
       <c r="B1064">
@@ -8515,7 +8509,7 @@
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1065" s="8">
+      <c r="A1065" s="3">
         <v>44894</v>
       </c>
       <c r="B1065">
@@ -8523,7 +8517,7 @@
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1066" s="8">
+      <c r="A1066" s="3">
         <v>44895</v>
       </c>
       <c r="B1066">
@@ -8531,7 +8525,7 @@
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1067" s="7">
+      <c r="A1067" s="2">
         <v>44896</v>
       </c>
       <c r="B1067">
@@ -8539,7 +8533,7 @@
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1068" s="7">
+      <c r="A1068" s="2">
         <v>44897</v>
       </c>
       <c r="B1068">
@@ -8547,7 +8541,7 @@
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1069" s="7">
+      <c r="A1069" s="2">
         <v>44898</v>
       </c>
       <c r="B1069">
@@ -8555,7 +8549,7 @@
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1070" s="7">
+      <c r="A1070" s="2">
         <v>44899</v>
       </c>
       <c r="B1070">
@@ -8563,7 +8557,7 @@
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1071" s="7">
+      <c r="A1071" s="2">
         <v>44900</v>
       </c>
       <c r="B1071">
@@ -8571,7 +8565,7 @@
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1072" s="7">
+      <c r="A1072" s="2">
         <v>44901</v>
       </c>
       <c r="B1072">
@@ -8579,7 +8573,7 @@
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1073" s="7">
+      <c r="A1073" s="2">
         <v>44902</v>
       </c>
       <c r="B1073">
@@ -8587,12 +8581,12 @@
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1074" s="7">
+      <c r="A1074" s="2">
         <v>44903</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1075" s="7">
+      <c r="A1075" s="2">
         <v>44904</v>
       </c>
       <c r="B1075">
@@ -8600,7 +8594,7 @@
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1076" s="8">
+      <c r="A1076" s="3">
         <v>44905</v>
       </c>
       <c r="B1076">
@@ -8608,7 +8602,7 @@
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1077" s="8">
+      <c r="A1077" s="3">
         <v>44906</v>
       </c>
       <c r="B1077">
@@ -8616,7 +8610,7 @@
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1078" s="8">
+      <c r="A1078" s="3">
         <v>44907</v>
       </c>
       <c r="B1078">
@@ -8624,12 +8618,12 @@
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1079" s="8">
+      <c r="A1079" s="3">
         <v>44908</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1080" s="8">
+      <c r="A1080" s="3">
         <v>44909</v>
       </c>
       <c r="B1080">
@@ -8637,12 +8631,12 @@
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1081" s="8">
+      <c r="A1081" s="3">
         <v>44910</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1082" s="8">
+      <c r="A1082" s="3">
         <v>44911</v>
       </c>
       <c r="B1082">
@@ -8650,7 +8644,7 @@
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1083" s="8">
+      <c r="A1083" s="3">
         <v>44912</v>
       </c>
       <c r="B1083">
@@ -8658,7 +8652,7 @@
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1084" s="8">
+      <c r="A1084" s="3">
         <v>44913</v>
       </c>
       <c r="B1084">
@@ -8666,7 +8660,7 @@
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1085" s="8">
+      <c r="A1085" s="3">
         <v>44914</v>
       </c>
       <c r="B1085">
@@ -8674,7 +8668,7 @@
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1086" s="8">
+      <c r="A1086" s="3">
         <v>44915</v>
       </c>
       <c r="B1086">
@@ -8682,7 +8676,7 @@
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1087" s="8">
+      <c r="A1087" s="3">
         <v>44916</v>
       </c>
       <c r="B1087">
@@ -8690,7 +8684,7 @@
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1088" s="8">
+      <c r="A1088" s="3">
         <v>44917</v>
       </c>
       <c r="B1088">
@@ -8698,7 +8692,7 @@
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1089" s="8">
+      <c r="A1089" s="3">
         <v>44918</v>
       </c>
       <c r="B1089">
@@ -8706,7 +8700,7 @@
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1090" s="8">
+      <c r="A1090" s="3">
         <v>44919</v>
       </c>
       <c r="B1090">
@@ -8714,7 +8708,7 @@
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1091" s="8">
+      <c r="A1091" s="3">
         <v>44920</v>
       </c>
       <c r="B1091">
@@ -8722,7 +8716,7 @@
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1092" s="8">
+      <c r="A1092" s="3">
         <v>44921</v>
       </c>
       <c r="B1092">
@@ -8730,7 +8724,7 @@
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1093" s="8">
+      <c r="A1093" s="3">
         <v>44922</v>
       </c>
       <c r="B1093">
@@ -8738,7 +8732,7 @@
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1094" s="8">
+      <c r="A1094" s="3">
         <v>44923</v>
       </c>
       <c r="B1094">
@@ -8746,7 +8740,7 @@
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1095" s="8">
+      <c r="A1095" s="3">
         <v>44924</v>
       </c>
       <c r="B1095">
@@ -8754,12 +8748,12 @@
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1096" s="8">
+      <c r="A1096" s="3">
         <v>44925</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1097" s="8">
+      <c r="A1097" s="3">
         <v>44926</v>
       </c>
       <c r="B1097">
